--- a/templates de metados semanticos/metadata/SDD-RISKSTRAT-EXP-1-2021.xlsx
+++ b/templates de metados semanticos/metadata/SDD-RISKSTRAT-EXP-1-2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\estratificacaoderiscosaudemental\hadatac\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\estratificacaoderiscosaudemental\templates de metados semanticos\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A8CF11-FA35-4DAC-9E0C-CB801B723C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04244A16-87C1-4672-80C2-A567027C67DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,40 +214,22 @@
     <t>schema:Interger</t>
   </si>
   <si>
-    <t>oersm:DataDeAdmissao</t>
-  </si>
-  <si>
     <t>??dadodeinternacao</t>
   </si>
   <si>
     <t>schema:DateTime</t>
   </si>
   <si>
-    <t>oersm:NomeCompleto</t>
-  </si>
-  <si>
     <t>Sexo</t>
-  </si>
-  <si>
-    <t>oersm:Sexo</t>
   </si>
   <si>
     <t>Idade</t>
   </si>
   <si>
-    <t>oersm:Idade</t>
-  </si>
-  <si>
     <t>Fumante</t>
   </si>
   <si>
-    <t>oersm:Fumante</t>
-  </si>
-  <si>
     <t>Grupo de CID</t>
-  </si>
-  <si>
-    <t>oersm:GrupoDeCID</t>
   </si>
   <si>
     <t>??dadoclinico</t>
@@ -256,25 +238,13 @@
     <t>Uso de Substancia psicoativa</t>
   </si>
   <si>
-    <t>oersm:OpcaoDeResposta</t>
-  </si>
-  <si>
     <t>Tipo de Substancia psicoativa</t>
-  </si>
-  <si>
-    <t>oersm:TipoDeSubstanciaPsicoativa</t>
   </si>
   <si>
     <t>Frequencia de uso da Substancia psicoativa</t>
   </si>
   <si>
-    <t>oersm:FrequenciaDoUsoDoTipoDeSubstanciaPsicoativa</t>
-  </si>
-  <si>
     <t>??elementoquestionario</t>
-  </si>
-  <si>
-    <t>oersm:quantidadeInterncaoUltimoAno</t>
   </si>
   <si>
     <t>??questaorespondesintomatologia</t>
@@ -301,13 +271,7 @@
     <t>??parametrodevulnerabilidade</t>
   </si>
   <si>
-    <t>oersm:Comorbidade</t>
-  </si>
-  <si>
     <t>pontos_grupo1_1</t>
-  </si>
-  <si>
-    <t>oersm:Pontuacao</t>
   </si>
   <si>
     <t>pontos_grupo1_2</t>
@@ -379,109 +343,25 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>oersm:PontuacaoFinal</t>
-  </si>
-  <si>
     <t>RISCO</t>
-  </si>
-  <si>
-    <t>oersm:NivelDeRisco</t>
   </si>
   <si>
     <t>grupo etario</t>
   </si>
   <si>
-    <t>oersm:FaixaEtaria</t>
-  </si>
-  <si>
-    <t>oersm:Questao</t>
-  </si>
-  <si>
-    <t>oersm:questaoPossui</t>
-  </si>
-  <si>
-    <t>oersm:Paciente</t>
-  </si>
-  <si>
-    <t>oersm:responde</t>
-  </si>
-  <si>
-    <t>oersm:DadoDeInternacao</t>
-  </si>
-  <si>
-    <t>oersm:DadoClinico</t>
-  </si>
-  <si>
-    <t>oersm:pacientePossui</t>
-  </si>
-  <si>
-    <t>oersm:ElementoQuestionario</t>
-  </si>
-  <si>
-    <t>oersm:temElementoQuestionario</t>
-  </si>
-  <si>
     <t>??nivelderisco</t>
-  </si>
-  <si>
-    <t>oersm:nivelDeRiscoOrienta</t>
-  </si>
-  <si>
-    <t>oersm:ProjetoTerapeuticoSingular</t>
   </si>
   <si>
     <t>??projetoterapeuticosingular</t>
   </si>
   <si>
-    <t>oersm:projetoTerapeuticoSingularEFormadoPor</t>
-  </si>
-  <si>
-    <t>oersm:AcaoTerapeutica</t>
-  </si>
-  <si>
     <t>??nivelderiscoalto</t>
-  </si>
-  <si>
-    <t>oersm:NivelDeRiscoAlto</t>
-  </si>
-  <si>
-    <t>oersm:AtendimentoMedico</t>
-  </si>
-  <si>
-    <t>oersm:InstrumentoAssistencial</t>
-  </si>
-  <si>
-    <t>oersm:OficinaDeConvivencia</t>
   </si>
   <si>
     <t>??nivelderiscomedio</t>
   </si>
   <si>
-    <t>oersm:NivelDeRiscoMedio</t>
-  </si>
-  <si>
     <t>??nivelderiscobaixo</t>
-  </si>
-  <si>
-    <t>oersm:NivelDeRiscoBaixo</t>
-  </si>
-  <si>
-    <t>oersm:Sintomatologia</t>
-  </si>
-  <si>
-    <t>oersm:parametroDefineNivelEmSaude</t>
-  </si>
-  <si>
-    <t>oersm:NivelDaAssistenciaEmSaude</t>
-  </si>
-  <si>
-    <t>oersm:RiscoParaSiEOutros</t>
-  </si>
-  <si>
-    <t>oersm:DependenciaAutonomia</t>
-  </si>
-  <si>
-    <t>oersm:VulnerabilidadeSocial</t>
   </si>
   <si>
     <t>Masculino</t>
@@ -1202,6 +1082,126 @@
   </si>
   <si>
     <t>grupoetario</t>
+  </si>
+  <si>
+    <t>ontriscal:DataDeAdmissao</t>
+  </si>
+  <si>
+    <t>ontriscal:NomeCompleto</t>
+  </si>
+  <si>
+    <t>ontriscal:Sexo</t>
+  </si>
+  <si>
+    <t>ontriscal:Idade</t>
+  </si>
+  <si>
+    <t>ontriscal:Fumante</t>
+  </si>
+  <si>
+    <t>ontriscal:GrupoDeCID</t>
+  </si>
+  <si>
+    <t>ontriscal:OpcaoDeResposta</t>
+  </si>
+  <si>
+    <t>ontriscal:TipoDeSubstanciaPsicoativa</t>
+  </si>
+  <si>
+    <t>ontriscal:FrequenciaDoUsoDoTipoDeSubstanciaPsicoativa</t>
+  </si>
+  <si>
+    <t>ontriscal:quantidadeInterncaoUltimoAno</t>
+  </si>
+  <si>
+    <t>ontriscal:Comorbidade</t>
+  </si>
+  <si>
+    <t>ontriscal:Pontuacao</t>
+  </si>
+  <si>
+    <t>ontriscal:PontuacaoFinal</t>
+  </si>
+  <si>
+    <t>ontriscal:NivelDeRisco</t>
+  </si>
+  <si>
+    <t>ontriscal:FaixaEtaria</t>
+  </si>
+  <si>
+    <t>ontriscal:Questao</t>
+  </si>
+  <si>
+    <t>ontriscal:questaoPossui</t>
+  </si>
+  <si>
+    <t>ontriscal:Paciente</t>
+  </si>
+  <si>
+    <t>ontriscal:responde</t>
+  </si>
+  <si>
+    <t>ontriscal:DadoDeInternacao</t>
+  </si>
+  <si>
+    <t>ontriscal:DadoClinico</t>
+  </si>
+  <si>
+    <t>ontriscal:pacientePossui</t>
+  </si>
+  <si>
+    <t>ontriscal:ElementoQuestionario</t>
+  </si>
+  <si>
+    <t>ontriscal:temElementoQuestionario</t>
+  </si>
+  <si>
+    <t>ontriscal:nivelDeRiscoOrienta</t>
+  </si>
+  <si>
+    <t>ontriscal:ProjetoTerapeuticoSingular</t>
+  </si>
+  <si>
+    <t>ontriscal:projetoTerapeuticoSingularEFormadoPor</t>
+  </si>
+  <si>
+    <t>ontriscal:AcaoTerapeutica</t>
+  </si>
+  <si>
+    <t>ontriscal:NivelDeRiscoAlto</t>
+  </si>
+  <si>
+    <t>ontriscal:AtendimentoMedico</t>
+  </si>
+  <si>
+    <t>ontriscal:InstrumentoAssistencial</t>
+  </si>
+  <si>
+    <t>ontriscal:OficinaDeConvivencia</t>
+  </si>
+  <si>
+    <t>ontriscal:NivelDeRiscoMedio</t>
+  </si>
+  <si>
+    <t>ontriscal:NivelDeRiscoBaixo</t>
+  </si>
+  <si>
+    <t>ontriscal:Sintomatologia</t>
+  </si>
+  <si>
+    <t>ontriscal:parametroDefineNivelEmSaude</t>
+  </si>
+  <si>
+    <t>ontriscal:NivelDaAssistenciaEmSaude</t>
+  </si>
+  <si>
+    <t>ontriscal:RiscoParaSiEOutros</t>
+  </si>
+  <si>
+    <t>ontriscal:DependenciaAutonomia</t>
+  </si>
+  <si>
+    <t>ontriscal:VulnerabilidadeSocial</t>
   </si>
 </sst>
 </file>
@@ -2595,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2646,7 +2646,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2721,1201 +2721,1201 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="29" t="s">
         <v>198</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1">
       <c r="A69" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="A70" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
       <c r="A71" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1">
       <c r="A72" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1">
       <c r="A73" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1">
       <c r="A74" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1">
       <c r="A75" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1">
       <c r="A76" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1">
       <c r="A77" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1">
       <c r="A79" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1">
       <c r="A80" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
       <c r="A81" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="A82" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="A83" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1">
       <c r="A84" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1">
       <c r="A85" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
       <c r="A86" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1">
       <c r="A87" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1">
       <c r="A88" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1">
       <c r="A89" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1">
       <c r="A90" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1">
       <c r="A91" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1">
       <c r="A92" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1">
       <c r="A93" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1">
       <c r="A94" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1">
       <c r="A95" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
       <c r="A96" s="29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1">
       <c r="A97" s="29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1">
       <c r="A98" s="29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1">
       <c r="A99" s="29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1">
       <c r="A100" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1">
       <c r="A101" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1">
       <c r="A102" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1">
       <c r="A103" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1">
       <c r="A104" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1">
       <c r="A105" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1">
       <c r="A106" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1">
       <c r="A107" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1">
       <c r="A108" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1">
       <c r="A109" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1">
       <c r="A110" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:KK208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4278,7 +4280,7 @@
     </row>
     <row r="2" spans="1:297" ht="15.75" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>47</v>
@@ -4294,7 +4296,7 @@
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -4587,23 +4589,23 @@
     </row>
     <row r="3" spans="1:297" ht="15.75" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>51</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -4896,10 +4898,10 @@
     </row>
     <row r="4" spans="1:297" ht="15.75" customHeight="1">
       <c r="A4" s="29" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>53</v>
+        <v>341</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>48</v>
@@ -4910,7 +4912,7 @@
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -5203,10 +5205,10 @@
     </row>
     <row r="5" spans="1:297" ht="15.75" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>55</v>
+        <v>342</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>48</v>
@@ -5217,7 +5219,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
@@ -5510,10 +5512,10 @@
     </row>
     <row r="6" spans="1:297" ht="15.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>57</v>
+        <v>343</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>48</v>
@@ -5526,7 +5528,7 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
@@ -5819,10 +5821,10 @@
     </row>
     <row r="7" spans="1:297" ht="15.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>59</v>
+        <v>344</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>48</v>
@@ -5833,7 +5835,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -6126,13 +6128,13 @@
     </row>
     <row r="8" spans="1:297" ht="15.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>61</v>
+        <v>345</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -6140,7 +6142,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -6433,13 +6435,13 @@
     </row>
     <row r="9" spans="1:297" ht="15.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -6447,7 +6449,7 @@
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -6740,13 +6742,13 @@
     </row>
     <row r="10" spans="1:297" ht="15.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>66</v>
+        <v>347</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -6754,7 +6756,7 @@
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -7047,13 +7049,13 @@
     </row>
     <row r="11" spans="1:297" ht="15.75" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -7061,7 +7063,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -7354,13 +7356,13 @@
     </row>
     <row r="12" spans="1:297" ht="15.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -7368,7 +7370,7 @@
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -7661,13 +7663,13 @@
     </row>
     <row r="13" spans="1:297" ht="15.75" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>70</v>
+        <v>349</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -7675,7 +7677,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -7968,13 +7970,13 @@
     </row>
     <row r="14" spans="1:297" ht="15.75" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -7982,7 +7984,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
@@ -8275,13 +8277,13 @@
     </row>
     <row r="15" spans="1:297" ht="15.75" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -8289,7 +8291,7 @@
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
@@ -8582,13 +8584,13 @@
     </row>
     <row r="16" spans="1:297" ht="15.75" customHeight="1">
       <c r="A16" s="29" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -8596,7 +8598,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -8889,13 +8891,13 @@
     </row>
     <row r="17" spans="1:297" ht="15.75" customHeight="1">
       <c r="A17" s="29" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -8903,7 +8905,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
@@ -9196,13 +9198,13 @@
     </row>
     <row r="18" spans="1:297" ht="15.75" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -9210,7 +9212,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
@@ -9503,13 +9505,13 @@
     </row>
     <row r="19" spans="1:297" ht="15.75" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -9517,7 +9519,7 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -9810,13 +9812,13 @@
     </row>
     <row r="20" spans="1:297" ht="15.75" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -9824,7 +9826,7 @@
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -10117,13 +10119,13 @@
     </row>
     <row r="21" spans="1:297" ht="15.75" customHeight="1">
       <c r="A21" s="29" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -10131,7 +10133,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
@@ -10424,13 +10426,13 @@
     </row>
     <row r="22" spans="1:297" ht="15.75" customHeight="1">
       <c r="A22" s="29" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -10438,7 +10440,7 @@
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -10731,13 +10733,13 @@
     </row>
     <row r="23" spans="1:297" ht="15.75" customHeight="1">
       <c r="A23" s="29" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
@@ -10745,7 +10747,7 @@
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
@@ -11038,13 +11040,13 @@
     </row>
     <row r="24" spans="1:297" ht="15.75" customHeight="1">
       <c r="A24" s="29" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -11052,7 +11054,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
@@ -11345,13 +11347,13 @@
     </row>
     <row r="25" spans="1:297" ht="15.75" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -11359,7 +11361,7 @@
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -11652,13 +11654,13 @@
     </row>
     <row r="26" spans="1:297" ht="15.75" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -11666,7 +11668,7 @@
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
@@ -11959,13 +11961,13 @@
     </row>
     <row r="27" spans="1:297" ht="15.75" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
@@ -11973,7 +11975,7 @@
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
@@ -12266,13 +12268,13 @@
     </row>
     <row r="28" spans="1:297" ht="15.75" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
@@ -12280,7 +12282,7 @@
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -12573,13 +12575,13 @@
     </row>
     <row r="29" spans="1:297" ht="15.75" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -12587,7 +12589,7 @@
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
@@ -12880,13 +12882,13 @@
     </row>
     <row r="30" spans="1:297" ht="15.75" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
@@ -12894,7 +12896,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
@@ -13187,13 +13189,13 @@
     </row>
     <row r="31" spans="1:297" ht="15.75" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -13201,7 +13203,7 @@
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -13494,13 +13496,13 @@
     </row>
     <row r="32" spans="1:297" ht="15.75" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -13508,7 +13510,7 @@
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
@@ -13801,13 +13803,13 @@
     </row>
     <row r="33" spans="1:297" ht="13.7" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -13815,7 +13817,7 @@
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
@@ -14108,13 +14110,13 @@
     </row>
     <row r="34" spans="1:297" ht="13.7" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
@@ -14122,7 +14124,7 @@
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -14415,13 +14417,13 @@
     </row>
     <row r="35" spans="1:297" ht="13.7" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
@@ -14429,7 +14431,7 @@
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -14722,10 +14724,10 @@
     </row>
     <row r="36" spans="1:297" ht="13.7" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>48</v>
@@ -14736,7 +14738,7 @@
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
@@ -15029,13 +15031,13 @@
     </row>
     <row r="37" spans="1:297" ht="13.7" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
@@ -15043,7 +15045,7 @@
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -15336,13 +15338,13 @@
     </row>
     <row r="38" spans="1:297" ht="13.7" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="29" t="s">
@@ -15352,7 +15354,7 @@
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -15645,13 +15647,13 @@
     </row>
     <row r="39" spans="1:297" ht="15.75" customHeight="1">
       <c r="A39" s="29" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29" t="s">
@@ -15661,7 +15663,7 @@
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -15954,13 +15956,13 @@
     </row>
     <row r="40" spans="1:297" ht="15.75" customHeight="1">
       <c r="A40" s="29" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29" t="s">
@@ -15970,7 +15972,7 @@
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
@@ -16007,13 +16009,13 @@
     </row>
     <row r="41" spans="1:297" ht="15.75" customHeight="1">
       <c r="A41" s="29" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29" t="s">
@@ -16023,7 +16025,7 @@
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
       <c r="I41" s="29" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
@@ -16060,13 +16062,13 @@
     </row>
     <row r="42" spans="1:297" ht="15.75" customHeight="1">
       <c r="A42" s="29" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29" t="s">
@@ -16076,7 +16078,7 @@
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -16113,13 +16115,13 @@
     </row>
     <row r="43" spans="1:297" ht="15.75" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29" t="s">
@@ -16129,7 +16131,7 @@
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
@@ -16166,13 +16168,13 @@
     </row>
     <row r="44" spans="1:297" ht="15.75" customHeight="1">
       <c r="A44" s="29" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="29" t="s">
@@ -16182,7 +16184,7 @@
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -16219,13 +16221,13 @@
     </row>
     <row r="45" spans="1:297" ht="15.75" customHeight="1">
       <c r="A45" s="29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="29" t="s">
@@ -16235,7 +16237,7 @@
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
@@ -16272,13 +16274,13 @@
     </row>
     <row r="46" spans="1:297" ht="15.75" customHeight="1">
       <c r="A46" s="29" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29" t="s">
@@ -16288,7 +16290,7 @@
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
       <c r="I46" s="29" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -16325,13 +16327,13 @@
     </row>
     <row r="47" spans="1:297" ht="15.75" customHeight="1">
       <c r="A47" s="29" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29" t="s">
@@ -16341,7 +16343,7 @@
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
       <c r="I47" s="29" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
@@ -16378,13 +16380,13 @@
     </row>
     <row r="48" spans="1:297" ht="15.75" customHeight="1">
       <c r="A48" s="29" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29" t="s">
@@ -16394,7 +16396,7 @@
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
@@ -16431,13 +16433,13 @@
     </row>
     <row r="49" spans="1:41" ht="15.75" customHeight="1">
       <c r="A49" s="29" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="29" t="s">
@@ -16447,7 +16449,7 @@
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
@@ -16484,13 +16486,13 @@
     </row>
     <row r="50" spans="1:41" ht="15.75" customHeight="1">
       <c r="A50" s="29" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29" t="s">
@@ -16500,7 +16502,7 @@
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -16537,13 +16539,13 @@
     </row>
     <row r="51" spans="1:41" ht="15.75" customHeight="1">
       <c r="A51" s="29" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="29" t="s">
@@ -16553,7 +16555,7 @@
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="29"/>
@@ -16590,13 +16592,13 @@
     </row>
     <row r="52" spans="1:41" ht="15.75" customHeight="1">
       <c r="A52" s="29" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="29" t="s">
@@ -16606,7 +16608,7 @@
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
       <c r="I52" s="29" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
@@ -16643,13 +16645,13 @@
     </row>
     <row r="53" spans="1:41" ht="15.75" customHeight="1">
       <c r="A53" s="29" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29" t="s">
@@ -16659,7 +16661,7 @@
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
       <c r="I53" s="29" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
@@ -16696,13 +16698,13 @@
     </row>
     <row r="54" spans="1:41" ht="15.75" customHeight="1">
       <c r="A54" s="29" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="29" t="s">
@@ -16712,7 +16714,7 @@
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
@@ -16749,13 +16751,13 @@
     </row>
     <row r="55" spans="1:41" ht="15.75" customHeight="1">
       <c r="A55" s="29" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="29" t="s">
@@ -16765,7 +16767,7 @@
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
@@ -16802,13 +16804,13 @@
     </row>
     <row r="56" spans="1:41" ht="15.75" customHeight="1">
       <c r="A56" s="29" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="29" t="s">
@@ -16818,7 +16820,7 @@
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
       <c r="I56" s="29" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -16855,13 +16857,13 @@
     </row>
     <row r="57" spans="1:41" ht="15.75" customHeight="1">
       <c r="A57" s="29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="29" t="s">
@@ -16871,7 +16873,7 @@
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="29"/>
@@ -16908,13 +16910,13 @@
     </row>
     <row r="58" spans="1:41" ht="15.75" customHeight="1">
       <c r="A58" s="29" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="29" t="s">
@@ -16924,7 +16926,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
       <c r="I58" s="29" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
@@ -16961,13 +16963,13 @@
     </row>
     <row r="59" spans="1:41" ht="15.75" customHeight="1">
       <c r="A59" s="29" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="29" t="s">
@@ -16977,7 +16979,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="29" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
@@ -17014,13 +17016,13 @@
     </row>
     <row r="60" spans="1:41" ht="15.75" customHeight="1">
       <c r="A60" s="29" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29" t="s">
@@ -17030,7 +17032,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="29" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
@@ -17067,13 +17069,13 @@
     </row>
     <row r="61" spans="1:41" ht="15.75" customHeight="1">
       <c r="A61" s="29" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>105</v>
+        <v>352</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="29" t="s">
@@ -17118,10 +17120,10 @@
     </row>
     <row r="62" spans="1:41" ht="15.75" customHeight="1">
       <c r="A62" s="29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>107</v>
+        <v>353</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>48</v>
@@ -17167,10 +17169,10 @@
     </row>
     <row r="63" spans="1:41" ht="15.75" customHeight="1">
       <c r="A63" s="29" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>109</v>
+        <v>354</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>48</v>
@@ -17216,20 +17218,20 @@
     </row>
     <row r="64" spans="1:41" ht="15.75" customHeight="1">
       <c r="A64" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
       <c r="D64" s="29" t="s">
-        <v>110</v>
+        <v>355</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29" t="s">
-        <v>111</v>
+        <v>356</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
@@ -17272,15 +17274,15 @@
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29" t="s">
-        <v>112</v>
+        <v>357</v>
       </c>
       <c r="E65" s="29"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>110</v>
+        <v>355</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
@@ -17318,12 +17320,12 @@
     </row>
     <row r="66" spans="1:41" ht="15.75" customHeight="1">
       <c r="A66" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
       <c r="D66" s="29" t="s">
-        <v>114</v>
+        <v>359</v>
       </c>
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
@@ -17365,12 +17367,12 @@
     </row>
     <row r="67" spans="1:41" ht="15.75" customHeight="1">
       <c r="A67" s="29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
       <c r="D67" s="29" t="s">
-        <v>115</v>
+        <v>360</v>
       </c>
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
@@ -17417,15 +17419,15 @@
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
       <c r="D68" s="29" t="s">
-        <v>112</v>
+        <v>357</v>
       </c>
       <c r="E68" s="29"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29" t="s">
-        <v>116</v>
+        <v>361</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>114</v>
+        <v>359</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
@@ -17468,15 +17470,15 @@
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
       <c r="D69" s="29" t="s">
-        <v>112</v>
+        <v>357</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29" t="s">
-        <v>116</v>
+        <v>361</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>105</v>
+        <v>352</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
@@ -17519,15 +17521,15 @@
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
       <c r="D70" s="29" t="s">
-        <v>112</v>
+        <v>357</v>
       </c>
       <c r="E70" s="29"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29" t="s">
-        <v>116</v>
+        <v>361</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>115</v>
+        <v>360</v>
       </c>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
@@ -17565,20 +17567,20 @@
     </row>
     <row r="71" spans="1:41" ht="15.75" customHeight="1">
       <c r="A71" s="29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
       <c r="D71" s="29" t="s">
-        <v>117</v>
+        <v>362</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29" t="s">
-        <v>118</v>
+        <v>363</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>112</v>
+        <v>357</v>
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
@@ -17621,15 +17623,15 @@
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
       <c r="D72" s="29" t="s">
-        <v>112</v>
+        <v>357</v>
       </c>
       <c r="E72" s="29"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29" t="s">
-        <v>116</v>
+        <v>361</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>107</v>
+        <v>353</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
@@ -17667,20 +17669,20 @@
     </row>
     <row r="73" spans="1:41" ht="15.75" customHeight="1">
       <c r="A73" s="29" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
       <c r="D73" s="29" t="s">
-        <v>107</v>
+        <v>353</v>
       </c>
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>121</v>
+        <v>365</v>
       </c>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
@@ -17718,20 +17720,20 @@
     </row>
     <row r="74" spans="1:41" ht="15.75" customHeight="1">
       <c r="A74" s="29" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
       <c r="D74" s="29" t="s">
-        <v>121</v>
+        <v>365</v>
       </c>
       <c r="E74" s="29"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29" t="s">
-        <v>123</v>
+        <v>366</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>124</v>
+        <v>367</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
@@ -17769,20 +17771,20 @@
     </row>
     <row r="75" spans="1:41" ht="15.75" customHeight="1">
       <c r="A75" s="29" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
       <c r="D75" s="29" t="s">
-        <v>126</v>
+        <v>368</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>127</v>
+        <v>369</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
@@ -17820,20 +17822,20 @@
     </row>
     <row r="76" spans="1:41" ht="15.75" customHeight="1">
       <c r="A76" s="29" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
       <c r="D76" s="29" t="s">
-        <v>126</v>
+        <v>368</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>128</v>
+        <v>370</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
@@ -17871,20 +17873,20 @@
     </row>
     <row r="77" spans="1:41" ht="15.75" customHeight="1">
       <c r="A77" s="29" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
       <c r="D77" s="29" t="s">
-        <v>126</v>
+        <v>368</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
@@ -17922,20 +17924,20 @@
     </row>
     <row r="78" spans="1:41" ht="15.75" customHeight="1">
       <c r="A78" s="29" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
       <c r="D78" s="29" t="s">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>127</v>
+        <v>369</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
@@ -17973,20 +17975,20 @@
     </row>
     <row r="79" spans="1:41" ht="15.75" customHeight="1">
       <c r="A79" s="29" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
       <c r="D79" s="29" t="s">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>128</v>
+        <v>370</v>
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
@@ -18024,20 +18026,20 @@
     </row>
     <row r="80" spans="1:41" ht="15.75" customHeight="1">
       <c r="A80" s="29" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
       <c r="D80" s="29" t="s">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
@@ -18075,20 +18077,20 @@
     </row>
     <row r="81" spans="1:41" ht="15.75" customHeight="1">
       <c r="A81" s="29" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29" t="s">
-        <v>133</v>
+        <v>373</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
       <c r="G81" s="29" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>127</v>
+        <v>369</v>
       </c>
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
@@ -18126,20 +18128,20 @@
     </row>
     <row r="82" spans="1:41" ht="15.75" customHeight="1">
       <c r="A82" s="29" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
       <c r="D82" s="29" t="s">
-        <v>133</v>
+        <v>373</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>128</v>
+        <v>370</v>
       </c>
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
@@ -18177,20 +18179,20 @@
     </row>
     <row r="83" spans="1:41" ht="15.75" customHeight="1">
       <c r="A83" s="29" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
       <c r="D83" s="29" t="s">
-        <v>133</v>
+        <v>373</v>
       </c>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
@@ -18228,20 +18230,20 @@
     </row>
     <row r="84" spans="1:41" ht="15.75" customHeight="1">
       <c r="A84" s="29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
       <c r="D84" s="29" t="s">
-        <v>134</v>
+        <v>374</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29" t="s">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
@@ -18279,20 +18281,20 @@
     </row>
     <row r="85" spans="1:41" ht="15.75" customHeight="1">
       <c r="A85" s="29" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
       <c r="D85" s="29" t="s">
-        <v>137</v>
+        <v>377</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29" t="s">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
@@ -18330,20 +18332,20 @@
     </row>
     <row r="86" spans="1:41" ht="15.75" customHeight="1">
       <c r="A86" s="29" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
       <c r="D86" s="29" t="s">
-        <v>138</v>
+        <v>378</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
       <c r="G86" s="29" t="s">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
@@ -18381,20 +18383,20 @@
     </row>
     <row r="87" spans="1:41" ht="15.75" customHeight="1">
       <c r="A87" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
       <c r="D87" s="29" t="s">
-        <v>139</v>
+        <v>379</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29" t="s">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
       <c r="I87" s="29"/>
       <c r="J87" s="29"/>

--- a/templates de metados semanticos/metadata/SDD-RISKSTRAT-EXP-1-2021.xlsx
+++ b/templates de metados semanticos/metadata/SDD-RISKSTRAT-EXP-1-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\estratificacaoderiscosaudemental\templates de metados semanticos\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04244A16-87C1-4672-80C2-A567027C67DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DA7C45-8D01-408F-86D8-E0AA7C4796D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="382">
   <si>
     <t>Attribute</t>
   </si>
@@ -1202,6 +1202,12 @@
   </si>
   <si>
     <t>ontriscal:VulnerabilidadeSocial</t>
+  </si>
+  <si>
+    <t>ontriscal:fazParte</t>
+  </si>
+  <si>
+    <t>ontriscal:GrupoDeQuestao</t>
   </si>
 </sst>
 </file>
@@ -3929,11 +3935,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:KK208"/>
+  <dimension ref="A1:KK209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -17269,20 +17273,20 @@
     </row>
     <row r="65" spans="1:41" ht="15.75" customHeight="1">
       <c r="A65" s="29" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E65" s="29"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
@@ -17320,17 +17324,21 @@
     </row>
     <row r="66" spans="1:41" ht="15.75" customHeight="1">
       <c r="A66" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
       <c r="D66" s="29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
+      <c r="G66" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>355</v>
+      </c>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
@@ -17367,12 +17375,12 @@
     </row>
     <row r="67" spans="1:41" ht="15.75" customHeight="1">
       <c r="A67" s="29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
       <c r="D67" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
@@ -17414,21 +17422,17 @@
     </row>
     <row r="68" spans="1:41" ht="15.75" customHeight="1">
       <c r="A68" s="29" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
       <c r="D68" s="29" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E68" s="29"/>
       <c r="F68" s="29"/>
-      <c r="G68" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>359</v>
-      </c>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
@@ -17478,7 +17482,7 @@
         <v>361</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
@@ -17529,7 +17533,7 @@
         <v>361</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
@@ -17567,20 +17571,20 @@
     </row>
     <row r="71" spans="1:41" ht="15.75" customHeight="1">
       <c r="A71" s="29" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
       <c r="D71" s="29" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
@@ -17618,20 +17622,20 @@
     </row>
     <row r="72" spans="1:41" ht="15.75" customHeight="1">
       <c r="A72" s="29" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
       <c r="D72" s="29" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E72" s="29"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
@@ -17669,20 +17673,20 @@
     </row>
     <row r="73" spans="1:41" ht="15.75" customHeight="1">
       <c r="A73" s="29" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
       <c r="D73" s="29" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
@@ -17720,20 +17724,20 @@
     </row>
     <row r="74" spans="1:41" ht="15.75" customHeight="1">
       <c r="A74" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
       <c r="D74" s="29" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E74" s="29"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
@@ -17771,20 +17775,20 @@
     </row>
     <row r="75" spans="1:41" ht="15.75" customHeight="1">
       <c r="A75" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
       <c r="D75" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
@@ -17835,7 +17839,7 @@
         <v>364</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
@@ -17886,7 +17890,7 @@
         <v>364</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
@@ -17924,12 +17928,12 @@
     </row>
     <row r="78" spans="1:41" ht="15.75" customHeight="1">
       <c r="A78" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
       <c r="D78" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
@@ -17937,7 +17941,7 @@
         <v>364</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
@@ -17988,7 +17992,7 @@
         <v>364</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
@@ -18039,7 +18043,7 @@
         <v>364</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
@@ -18077,12 +18081,12 @@
     </row>
     <row r="81" spans="1:41" ht="15.75" customHeight="1">
       <c r="A81" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -18090,7 +18094,7 @@
         <v>364</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
@@ -18141,7 +18145,7 @@
         <v>364</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
@@ -18192,7 +18196,7 @@
         <v>364</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
@@ -18230,20 +18234,20 @@
     </row>
     <row r="84" spans="1:41" ht="15.75" customHeight="1">
       <c r="A84" s="29" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
       <c r="D84" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
@@ -18281,12 +18285,12 @@
     </row>
     <row r="85" spans="1:41" ht="15.75" customHeight="1">
       <c r="A85" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
       <c r="D85" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
@@ -18332,12 +18336,12 @@
     </row>
     <row r="86" spans="1:41" ht="15.75" customHeight="1">
       <c r="A86" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
       <c r="D86" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
@@ -18383,12 +18387,12 @@
     </row>
     <row r="87" spans="1:41" ht="15.75" customHeight="1">
       <c r="A87" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
       <c r="D87" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
@@ -18433,14 +18437,22 @@
       <c r="AO87" s="29"/>
     </row>
     <row r="88" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A88" s="29"/>
+      <c r="A88" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
+      <c r="D88" s="29" t="s">
+        <v>379</v>
+      </c>
       <c r="E88" s="29"/>
       <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
+      <c r="G88" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="H88" s="29" t="s">
+        <v>376</v>
+      </c>
       <c r="I88" s="29"/>
       <c r="J88" s="29"/>
       <c r="K88" s="29"/>
@@ -23635,6 +23647,49 @@
       <c r="AN208" s="29"/>
       <c r="AO208" s="29"/>
     </row>
+    <row r="209" spans="1:41" ht="15.75" customHeight="1">
+      <c r="A209" s="29"/>
+      <c r="B209" s="29"/>
+      <c r="C209" s="29"/>
+      <c r="D209" s="29"/>
+      <c r="E209" s="29"/>
+      <c r="F209" s="29"/>
+      <c r="G209" s="29"/>
+      <c r="H209" s="29"/>
+      <c r="I209" s="29"/>
+      <c r="J209" s="29"/>
+      <c r="K209" s="29"/>
+      <c r="L209" s="29"/>
+      <c r="M209" s="29"/>
+      <c r="N209" s="29"/>
+      <c r="O209" s="29"/>
+      <c r="P209" s="29"/>
+      <c r="Q209" s="29"/>
+      <c r="R209" s="29"/>
+      <c r="S209" s="29"/>
+      <c r="T209" s="29"/>
+      <c r="U209" s="29"/>
+      <c r="V209" s="29"/>
+      <c r="W209" s="29"/>
+      <c r="X209" s="29"/>
+      <c r="Y209" s="29"/>
+      <c r="Z209" s="29"/>
+      <c r="AA209" s="29"/>
+      <c r="AB209" s="29"/>
+      <c r="AC209" s="29"/>
+      <c r="AD209" s="29"/>
+      <c r="AE209" s="29"/>
+      <c r="AF209" s="29"/>
+      <c r="AG209" s="29"/>
+      <c r="AH209" s="29"/>
+      <c r="AI209" s="29"/>
+      <c r="AJ209" s="29"/>
+      <c r="AK209" s="29"/>
+      <c r="AL209" s="29"/>
+      <c r="AM209" s="29"/>
+      <c r="AN209" s="29"/>
+      <c r="AO209" s="29"/>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/templates de metados semanticos/metadata/SDD-RISKSTRAT-EXP-1-2021.xlsx
+++ b/templates de metados semanticos/metadata/SDD-RISKSTRAT-EXP-1-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\estratificacaoderiscosaudemental\templates de metados semanticos\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DA7C45-8D01-408F-86D8-E0AA7C4796D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8923D19-C0A8-4E12-A86D-15DEA751C29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="384">
   <si>
     <t>Attribute</t>
   </si>
@@ -1208,6 +1208,12 @@
   </si>
   <si>
     <t>ontriscal:GrupoDeQuestao</t>
+  </si>
+  <si>
+    <t>TipodeComorbidadeououtracondicaocronicaclinicaassociada</t>
+  </si>
+  <si>
+    <t>Grupo6_4_Comorbidadeououtracondicaocronicaclinicaassociada?</t>
   </si>
 </sst>
 </file>
@@ -3937,7 +3943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:KK209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -14421,7 +14429,7 @@
     </row>
     <row r="35" spans="1:297" ht="13.7" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>346</v>
@@ -14728,7 +14736,7 @@
     </row>
     <row r="36" spans="1:297" ht="13.7" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>350</v>
